--- a/CPPAutomation/Mapping and Matrix/Mapping_Sheet.xlsx
+++ b/CPPAutomation/Mapping and Matrix/Mapping_Sheet.xlsx
@@ -25,7 +25,7 @@
     <author>Sudheer Kumar Balivada</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="1">
+    <comment ref="H22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -65,36 +65,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Need to revisit the test cases and script at later point</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
   <si>
     <t>Screen</t>
   </si>
@@ -240,21 +216,12 @@
     <t>Medications &gt; Pharmacist Med Review</t>
   </si>
   <si>
-    <t>PatientInfo_Demographics</t>
-  </si>
-  <si>
-    <t>PatientInfo_Demographics.xls</t>
-  </si>
-  <si>
     <t>CPP_VHN_Material Fulfillment.xls</t>
   </si>
   <si>
     <t>CPP_VHN_Manage Documents.xls</t>
   </si>
   <si>
-    <t>Patient Info left Panel</t>
-  </si>
-  <si>
     <t>ManageDocuments</t>
   </si>
   <si>
@@ -580,13 +547,79 @@
   </si>
   <si>
     <t>Print_Reports.xls</t>
+  </si>
+  <si>
+    <t>SNP/ESCO</t>
+  </si>
+  <si>
+    <t>Creates SNP/ESCO patients in EPS rule</t>
+  </si>
+  <si>
+    <t>CreateSNPnESCOpatient</t>
+  </si>
+  <si>
+    <t>No Validations. Creates SNP/ESCO patients as per input</t>
+  </si>
+  <si>
+    <t>To validate Routine Contact Task due after Finalizing the Patient</t>
+  </si>
+  <si>
+    <t>DepressionFollowUpContactReason</t>
+  </si>
+  <si>
+    <t>DepressionFollowUpContactReason.xls</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>To validate Diabetes Pathway screen</t>
+  </si>
+  <si>
+    <t>DiabetesPathway</t>
+  </si>
+  <si>
+    <t>DiabetesPathway.xls</t>
+  </si>
+  <si>
+    <t>Validate the fax report menu</t>
+  </si>
+  <si>
+    <t>FaxReport</t>
+  </si>
+  <si>
+    <t>FaxReport.xls</t>
+  </si>
+  <si>
+    <t>Validating newly added document types and other options in Manage Documents</t>
+  </si>
+  <si>
+    <t>ManageDocumentsUpload</t>
+  </si>
+  <si>
+    <t>ManageDocumentsUpload.xls</t>
+  </si>
+  <si>
+    <t>Validate MedAdvisor WorkFlow </t>
+  </si>
+  <si>
+    <t>MedAdvisorWorkFlow</t>
+  </si>
+  <si>
+    <t>MedAdvisorWorkFlow.xls</t>
+  </si>
+  <si>
+    <t>To verify all the functionality of the Patinet Assessment screen</t>
+  </si>
+  <si>
+    <t>No validations. Creates patients using PTC role. Used in another script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,12 +647,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -712,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -750,12 +777,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,34 +785,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -800,12 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1208,13 +1202,13 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="29">
         <v>18</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="29">
         <v>18</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="26" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="9"/>
@@ -1222,7 +1216,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="5"/>
@@ -1240,9 +1234,9 @@
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="40"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="9">
         <v>25</v>
       </c>
@@ -1261,7 +1255,7 @@
         <f>K3/J3*100</f>
         <v>76.744186046511629</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,15 +1271,15 @@
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="43"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1366,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,1070 +1404,1233 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="A2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="14">
         <v>12</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>5</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>7</v>
       </c>
-      <c r="G2" s="20">
-        <f t="shared" ref="G2:G12" si="0">E2/D2*100</f>
+      <c r="G2" s="18">
+        <f t="shared" ref="G2:G8" si="0">E2/D2*100</f>
         <v>41.666666666666671</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>108</v>
+      <c r="H2" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="16">
+        <v>45</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="14">
         <v>18</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>18</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <f>D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>79</v>
+      <c r="H3" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="A4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="14">
         <v>12</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>11</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>91.666666666666657</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="H4" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="14">
         <v>11</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="14">
         <v>7</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="14">
         <v>4</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>63.636363636363633</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>44.444444444444443</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="A7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="14">
         <v>19</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>19</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>124</v>
+      <c r="H7" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="14">
+        <v>86</v>
+      </c>
+      <c r="E8" s="14">
+        <v>41</v>
+      </c>
+      <c r="F8" s="14">
         <v>45</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="16">
-        <v>86</v>
-      </c>
-      <c r="E8" s="16">
-        <v>41</v>
-      </c>
-      <c r="F8" s="16">
-        <v>45</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f t="shared" si="0"/>
         <v>47.674418604651166</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>49</v>
+      <c r="H8" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="16">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="A9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="0"/>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="24">
-        <v>12</v>
-      </c>
-      <c r="E10" s="24">
-        <v>10</v>
-      </c>
-      <c r="F10" s="24">
-        <v>2</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>121</v>
+      <c r="E10" s="14">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" ref="G10:G39" si="1">E10/D10*100</f>
+        <v>100</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="14">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="14">
         <v>19</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E14" s="14">
         <v>10</v>
       </c>
-      <c r="F11" s="16">
-        <f>D11-E11</f>
+      <c r="F14" s="14">
+        <f>D14-E14</f>
         <v>9</v>
       </c>
-      <c r="G11" s="21">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18">
+        <f t="shared" si="1"/>
         <v>52.631578947368418</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="16">
-        <v>16</v>
-      </c>
-      <c r="E12" s="16">
-        <v>12</v>
-      </c>
-      <c r="F12" s="16">
-        <v>4</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="0"/>
+      <c r="H14" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="16">
-        <v>8</v>
-      </c>
-      <c r="E14" s="16">
-        <v>8</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" ref="G14:G25" si="1">E14/D14*100</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="16">
-        <v>7</v>
-      </c>
-      <c r="E15" s="16">
-        <v>6</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14">
+        <v>16</v>
+      </c>
+      <c r="E15" s="14">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="16">
+        <v>153</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="14">
+        <v>8</v>
+      </c>
+      <c r="E17" s="14">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="14">
+        <v>7</v>
+      </c>
+      <c r="E18" s="14">
         <v>6</v>
       </c>
-      <c r="E16" s="16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="16">
-        <v>3</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="29">
-        <v>8</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="1"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="14">
         <v>7</v>
       </c>
-      <c r="F17" s="29">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30">
-        <f t="shared" si="1"/>
-        <v>87.5</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="16">
-        <v>39</v>
-      </c>
-      <c r="E19" s="16">
-        <v>24</v>
-      </c>
-      <c r="F19" s="16">
-        <v>11</v>
-      </c>
-      <c r="G19" s="20">
-        <f t="shared" si="1"/>
-        <v>61.53846153846154</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>88</v>
+      <c r="E19" s="14">
+        <v>7</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="16">
+        <v>47</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="14">
         <v>6</v>
       </c>
-      <c r="E20" s="16">
-        <v>6</v>
-      </c>
-      <c r="F20" s="16">
-        <f>D20-E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>38</v>
+      <c r="E20" s="14">
+        <v>3</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>28</v>
+      <c r="A21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="14">
-        <f>D21-E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="B22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="14">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="14">
+        <v>39</v>
+      </c>
+      <c r="E23" s="14">
+        <v>24</v>
+      </c>
+      <c r="F23" s="14">
+        <v>11</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="1"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14">
+        <v>6</v>
+      </c>
+      <c r="F24" s="14">
+        <f>D24-E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="14">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="14">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14">
+        <v>10</v>
+      </c>
+      <c r="F26" s="14">
+        <f>D26-E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="14">
+        <v>24</v>
+      </c>
+      <c r="E27" s="14">
+        <v>24</v>
+      </c>
+      <c r="F27" s="14">
+        <v>24</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="14">
         <v>18</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E28" s="14">
         <v>14</v>
       </c>
-      <c r="F22" s="14">
-        <f>D22-E22</f>
+      <c r="F28" s="14">
+        <f>D28-E28</f>
         <v>4</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G28" s="18">
         <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
-      <c r="H22" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="H28" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="14">
+        <v>74</v>
+      </c>
+      <c r="E29" s="14">
+        <v>74</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="14">
+        <v>5</v>
+      </c>
+      <c r="E30" s="14">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="36">
-        <v>74</v>
-      </c>
-      <c r="E23" s="36">
-        <v>74</v>
-      </c>
-      <c r="F23" s="36">
+      <c r="C31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="14">
+        <v>5</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G31" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="36">
-        <v>5</v>
-      </c>
-      <c r="E24" s="36">
-        <v>5</v>
-      </c>
-      <c r="F24" s="36">
+      <c r="H31" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="14">
+        <v>11</v>
+      </c>
+      <c r="E32" s="14">
+        <v>11</v>
+      </c>
+      <c r="F32" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G32" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H24" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="36">
-        <v>5</v>
-      </c>
-      <c r="E25" s="36">
-        <v>5</v>
-      </c>
-      <c r="F25" s="36">
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="14">
+        <v>7</v>
+      </c>
+      <c r="E33" s="14">
+        <v>7</v>
+      </c>
+      <c r="F33" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G33" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H25" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="29">
-        <v>7</v>
-      </c>
-      <c r="E27" s="29">
-        <v>7</v>
-      </c>
-      <c r="F27" s="29">
+      <c r="H33" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="14">
+        <v>3</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3</v>
+      </c>
+      <c r="F34" s="14">
+        <f>D34-E34</f>
         <v>0</v>
       </c>
-      <c r="G27" s="30">
-        <f t="shared" ref="G27:G34" si="2">E27/D27*100</f>
+      <c r="G34" s="18">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="H34" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="29">
-        <v>3</v>
-      </c>
-      <c r="E28" s="29">
-        <v>3</v>
-      </c>
-      <c r="F28" s="29">
-        <f>D28-E28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="32">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="16">
-        <v>10</v>
-      </c>
-      <c r="E29" s="16">
-        <v>10</v>
-      </c>
-      <c r="F29" s="14">
-        <f>D29-E29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="36">
+      <c r="B35" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="14">
         <v>29</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E35" s="14">
         <v>23</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F35" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="37">
-        <f t="shared" si="2"/>
+      <c r="G35" s="18">
+        <f t="shared" si="1"/>
         <v>79.310344827586206</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="16">
-        <v>14</v>
-      </c>
-      <c r="E31" s="16">
-        <v>14</v>
-      </c>
-      <c r="F31" s="16">
-        <f>D31-E31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="16">
-        <v>3</v>
-      </c>
-      <c r="E32" s="16">
-        <v>3</v>
-      </c>
-      <c r="F32" s="16">
-        <f>D32-E32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="16">
-        <v>10</v>
-      </c>
-      <c r="E33" s="16">
-        <v>10</v>
-      </c>
-      <c r="F33" s="14">
-        <f>D33-E33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="18">
-        <v>22</v>
-      </c>
-      <c r="E34" s="18">
-        <v>16</v>
-      </c>
-      <c r="F34" s="18">
-        <f>D34-E34</f>
-        <v>6</v>
-      </c>
-      <c r="G34" s="18">
-        <f t="shared" si="2"/>
-        <v>72.727272727272734</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="23" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="16">
-        <v>6</v>
-      </c>
-      <c r="E36" s="16">
-        <v>6</v>
+      <c r="D36" s="14">
+        <v>14</v>
+      </c>
+      <c r="E36" s="14">
+        <v>14</v>
       </c>
       <c r="F36" s="14">
         <f>D36-E36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="21">
-        <f t="shared" ref="G36:G42" si="3">E36/D36*100</f>
+      <c r="G36" s="18">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H36" s="38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H36" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="14">
+        <v>3</v>
+      </c>
+      <c r="E37" s="14">
+        <v>3</v>
+      </c>
+      <c r="F37" s="14">
+        <f>D37-E37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="14">
+        <v>10</v>
+      </c>
+      <c r="E38" s="14">
+        <v>10</v>
+      </c>
+      <c r="F38" s="14">
+        <f>D38-E38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="16">
-        <v>5</v>
-      </c>
-      <c r="E37" s="16">
-        <v>3</v>
-      </c>
-      <c r="F37" s="16">
-        <v>2</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="29">
-        <v>10</v>
-      </c>
-      <c r="E38" s="29">
-        <v>10</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0</v>
-      </c>
-      <c r="G38" s="30">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="16">
-        <v>18</v>
-      </c>
-      <c r="E39" s="16">
-        <v>8</v>
-      </c>
-      <c r="F39" s="16">
-        <v>10</v>
-      </c>
-      <c r="G39" s="21">
-        <f t="shared" si="3"/>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>77</v>
+      <c r="B39" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="14">
+        <v>22</v>
+      </c>
+      <c r="E39" s="14">
+        <v>16</v>
+      </c>
+      <c r="F39" s="14">
+        <f>D39-E39</f>
+        <v>6</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="1"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="B41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="14">
+        <v>6</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6</v>
+      </c>
+      <c r="F41" s="14">
+        <f>D41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="18">
+        <f t="shared" ref="G41:G47" si="2">E41/D41*100</f>
+        <v>100</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="14">
+        <v>5</v>
+      </c>
+      <c r="E42" s="14">
+        <v>3</v>
+      </c>
+      <c r="F42" s="14">
+        <v>2</v>
+      </c>
+      <c r="G42" s="18">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="14">
+        <v>10</v>
+      </c>
+      <c r="E43" s="14">
+        <v>10</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="14">
+        <v>18</v>
+      </c>
+      <c r="E44" s="14">
+        <v>8</v>
+      </c>
+      <c r="F44" s="14">
+        <v>10</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="2"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="14">
         <v>14</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E45" s="14">
         <v>14</v>
       </c>
-      <c r="F40" s="16">
-        <f>D40-E40</f>
+      <c r="F45" s="14">
+        <f>D45-E45</f>
         <v>0</v>
       </c>
-      <c r="G40" s="21">
-        <f t="shared" si="3"/>
+      <c r="G45" s="18">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H40" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="H45" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="14">
         <v>11</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E46" s="14">
         <v>7</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F46" s="14">
         <v>4</v>
       </c>
-      <c r="G41" s="20">
-        <f t="shared" si="3"/>
+      <c r="G46" s="18">
+        <f t="shared" si="2"/>
         <v>63.636363636363633</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="29">
+      <c r="H46" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="14">
         <v>10</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E47" s="14">
         <v>6</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F47" s="14">
         <v>4</v>
       </c>
-      <c r="G42" s="30">
-        <f t="shared" si="3"/>
+      <c r="G47" s="18">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H42" s="28" t="s">
-        <v>93</v>
+      <c r="H47" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
